--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1736587.68783809</v>
+        <v>-1738537.913666651</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>537968.7061710702</v>
+        <v>174958.3892294198</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>313.6207916862629</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>205.7094486329784</v>
+        <v>344.4474190872454</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>170.1751240382604</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -786,7 +786,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>192.4564150008914</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>15.44382317818194</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1060,7 +1060,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>48.10637266807415</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>85.87170836083672</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>307.7740501797011</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>88.92068951600918</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>89.07602811714224</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>128.801431250095</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>101.0041688483411</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>157.5879717354858</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>75.80960945454521</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,7 +1822,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,19 +2056,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>17.56935693507711</v>
       </c>
       <c r="V19" t="n">
-        <v>237.6821551249385</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>16.64906489538841</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>105.741039563286</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>5.562624396425115</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>54.61509944719192</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2722,7 +2722,7 @@
         <v>78.30207251692852</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329028</v>
       </c>
       <c r="G28" t="n">
         <v>98.36167833373695</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463105</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415187</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789547</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3518,7 +3518,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="39">
@@ -3673,7 +3673,7 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789547</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415213</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1160.852583904132</v>
+        <v>1271.835978902613</v>
       </c>
       <c r="C2" t="n">
-        <v>791.8900669637198</v>
+        <v>955.0473004316407</v>
       </c>
       <c r="D2" t="n">
-        <v>433.6243683569693</v>
+        <v>955.0473004316407</v>
       </c>
       <c r="E2" t="n">
-        <v>433.6243683569693</v>
+        <v>569.2590478333964</v>
       </c>
       <c r="F2" t="n">
-        <v>225.837046505476</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>225.837046505476</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W2" t="n">
-        <v>2311.057514205145</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X2" t="n">
-        <v>1937.591755944065</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y2" t="n">
-        <v>1547.452423968253</v>
+        <v>1658.435818966735</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4410,40 +4410,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>819.7731851199076</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C5" t="n">
-        <v>819.7731851199076</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>819.7731851199076</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>819.7731851199076</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
         <v>625.3727659270879</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2450.343092470783</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>2119.280205127212</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.912517095719</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="Y5" t="n">
-        <v>819.7731851199076</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4647,40 +4647,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9727148150933</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>679.5366885821171</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694738</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="X7" t="n">
-        <v>351.9727148150933</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="Y7" t="n">
-        <v>351.9727148150933</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1435.441956461044</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C8" t="n">
-        <v>1066.479439520632</v>
+        <v>1116.929889604773</v>
       </c>
       <c r="D8" t="n">
-        <v>708.2137409138816</v>
+        <v>1116.929889604773</v>
       </c>
       <c r="E8" t="n">
-        <v>708.2137409138816</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>297.227836124274</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500977</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>2212.181128500977</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>2212.181128500977</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y8" t="n">
-        <v>1822.041796525165</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4857,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290.8087152951862</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>290.8087152951862</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>290.8087152951862</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>290.8087152951862</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>143.9187677972758</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>143.9187677972758</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>290.8087152951862</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V10" t="n">
-        <v>290.8087152951862</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W10" t="n">
-        <v>290.8087152951862</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X10" t="n">
-        <v>290.8087152951862</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>290.8087152951862</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5036,37 +5036,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>280.6570073165065</v>
+        <v>653.9609591077458</v>
       </c>
       <c r="L12" t="n">
-        <v>894.5540770733951</v>
+        <v>883.924064976095</v>
       </c>
       <c r="M12" t="n">
-        <v>1214.889396603097</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N12" t="n">
-        <v>1559.410052240715</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.0663679705859</v>
+        <v>199.2415044384082</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557905</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473457</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473457</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473457</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V13" t="n">
-        <v>1044.31177226757</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W13" t="n">
-        <v>754.8946022306093</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="X13" t="n">
-        <v>595.7148328008257</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="Y13" t="n">
-        <v>595.7148328008257</v>
+        <v>199.2415044384082</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>170.2813245761429</v>
       </c>
       <c r="L15" t="n">
-        <v>1204.259384505797</v>
+        <v>784.1783943330315</v>
       </c>
       <c r="M15" t="n">
-        <v>1204.259384505797</v>
+        <v>1552.546540725493</v>
       </c>
       <c r="N15" t="n">
-        <v>1548.780040143415</v>
+        <v>1897.067196363111</v>
       </c>
       <c r="O15" t="n">
-        <v>1797.533454227377</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1422.340907472503</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1198.555492262009</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>909.4268534755672</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>909.4268534755672</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>620.0096834386067</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5513,7 +5513,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5540,25 +5540,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5598,19 +5598,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L18" t="n">
-        <v>711.1141612171745</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M18" t="n">
-        <v>1204.259384505797</v>
+        <v>1069.673595198699</v>
       </c>
       <c r="N18" t="n">
-        <v>1548.780040143415</v>
+        <v>1874.08517346285</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q18" t="n">
         <v>2612.943493278838</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>946.3889166378392</v>
       </c>
       <c r="V19" t="n">
-        <v>545.9992215018333</v>
+        <v>946.3889166378392</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>656.9717466008786</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5832,25 +5832,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>493.5013994809973</v>
       </c>
       <c r="M21" t="n">
-        <v>1609.589088435861</v>
+        <v>813.8367190106992</v>
       </c>
       <c r="N21" t="n">
-        <v>1954.109744073479</v>
+        <v>1618.24829727485</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>1867.001711358812</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2387.302333094559</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>506.7814158330672</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5935,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V22" t="n">
-        <v>933.2366688293934</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W22" t="n">
-        <v>916.4194315613242</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X22" t="n">
-        <v>688.4298806633069</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y22" t="n">
-        <v>688.4298806633069</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6069,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M24" t="n">
-        <v>323.6581146605669</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N24" t="n">
-        <v>1128.069692924718</v>
+        <v>1364.414563824403</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>528.105874218302</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1219.964088229033</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1219.964088229033</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>930.5469181920719</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>930.5469181920719</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>709.7543390485417</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6203,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6306,22 +6306,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>323.6581146605669</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L27" t="n">
-        <v>323.6581146605669</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M27" t="n">
-        <v>323.6581146605669</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N27" t="n">
-        <v>1128.069692924718</v>
+        <v>1743.605857332687</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F28" t="n">
         <v>320.8847398504513</v>
@@ -6424,10 +6424,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="29">
@@ -6455,19 +6455,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6479,13 +6479,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6497,7 +6497,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M30" t="n">
-        <v>323.6581146605672</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N30" t="n">
-        <v>1128.069692924718</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6713,37 +6713,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M33" t="n">
-        <v>323.6581146605669</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N33" t="n">
-        <v>1128.069692924718</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028587</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M36" t="n">
-        <v>334.288126757867</v>
+        <v>1031.449480746876</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>1835.861059011027</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7075,13 +7075,13 @@
         <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,22 +7090,22 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254963</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649698</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
         <v>1688.18649035013</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7187,10 +7187,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207831</v>
@@ -7260,16 +7260,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605669</v>
+        <v>865.5852378527475</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924718</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>1918.75023020086</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2439.050851936608</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7315,13 +7315,13 @@
         <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7491,22 +7491,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605669</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924718</v>
+        <v>1961.218619068864</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982966</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
@@ -7591,28 +7591,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7652,7 +7652,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605669</v>
+        <v>1009.263896089484</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,49 +7807,49 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>211.6436946469419</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>370.8623401849285</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>341.0462807900898</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>198.5685309419536</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10428,16 +10428,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>370.8623401849284</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>330.3088948332207</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10668,10 +10668,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,7 +10908,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>370.8623401849284</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>370.8623401849285</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11379,10 +11379,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849285</v>
+        <v>275.2941679825714</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>62.4286266544661</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>153.7476487260967</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>66.2426522502867</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>68.12168365355137</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,10 +23659,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23701,7 +23701,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>122.111200529058</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>268.6679954635002</v>
       </c>
       <c r="V19" t="n">
-        <v>14.4554881988895</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24175,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.8739334412026</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>119.9686158257511</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>192.3581855871781</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>231.6222529513854</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58099.54682262555</v>
+        <v>58099.54682262558</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.13273982123</v>
       </c>
       <c r="D2" t="n">
         <v>61578.13273982122</v>
       </c>
       <c r="E2" t="n">
+        <v>58654.35896065629</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58654.35896065631</v>
+      </c>
+      <c r="G2" t="n">
         <v>58654.3589606563</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>58654.3589606563</v>
       </c>
-      <c r="G2" t="n">
-        <v>58654.35896065629</v>
-      </c>
-      <c r="H2" t="n">
-        <v>58654.35896065627</v>
-      </c>
       <c r="I2" t="n">
-        <v>58654.35896065628</v>
+        <v>58654.3589606563</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="K2" t="n">
         <v>61578.13273982127</v>
       </c>
       <c r="L2" t="n">
+        <v>61578.13273982126</v>
+      </c>
+      <c r="M2" t="n">
         <v>61578.13273982127</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>61578.13273982126</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>61578.13273982127</v>
-      </c>
-      <c r="O2" t="n">
-        <v>61578.13273982128</v>
       </c>
       <c r="P2" t="n">
         <v>61578.13273982125</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.5121037125</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,16 +26424,16 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758694</v>
-      </c>
       <c r="G4" t="n">
-        <v>787.7936905758888</v>
+        <v>787.7936905759104</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758822</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
@@ -26442,22 +26442,22 @@
         <v>23206.58093189634</v>
       </c>
       <c r="K4" t="n">
-        <v>23206.58093189633</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189632</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="M4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189631</v>
+        <v>23206.58093189633</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26476,31 +26476,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-727313.7188216749</v>
+        <v>-727429.6716855816</v>
       </c>
       <c r="C6" t="n">
         <v>-160340.0845042073</v>
@@ -26528,40 +26528,40 @@
         <v>-160340.0845042073</v>
       </c>
       <c r="E6" t="n">
-        <v>-559280.7971555324</v>
+        <v>-559378.2562815045</v>
       </c>
       <c r="F6" t="n">
-        <v>-34120.7606786362</v>
+        <v>-34218.21980460834</v>
       </c>
       <c r="G6" t="n">
-        <v>-34120.76067863622</v>
+        <v>-34218.21980460839</v>
       </c>
       <c r="H6" t="n">
-        <v>-34120.76067863627</v>
+        <v>-34218.21980460835</v>
       </c>
       <c r="I6" t="n">
-        <v>-34120.76067863622</v>
+        <v>-34218.21980460835</v>
       </c>
       <c r="J6" t="n">
         <v>-290272.2853084059</v>
       </c>
       <c r="K6" t="n">
-        <v>-59343.55401210046</v>
+        <v>-59343.55401210048</v>
       </c>
       <c r="L6" t="n">
-        <v>-59343.55401210046</v>
+        <v>-59343.55401210049</v>
       </c>
       <c r="M6" t="n">
-        <v>-194144.5692459377</v>
+        <v>-194144.5692459376</v>
       </c>
       <c r="N6" t="n">
-        <v>-59343.55401210045</v>
+        <v>-59343.55401210047</v>
       </c>
       <c r="O6" t="n">
         <v>-113849.066115813</v>
       </c>
       <c r="P6" t="n">
-        <v>-59343.55401210048</v>
+        <v>-59343.55401210049</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26701,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>68.13189012964065</v>
@@ -26716,7 +26716,7 @@
         <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
@@ -26725,7 +26725,7 @@
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,25 +26744,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26923,13 +26923,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>51.65210008474469</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>201.1665971087331</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>61.53161905815483</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,13 +27619,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>214.41963074082</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>235.7803443301074</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>238.1755015739036</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>139.8379470282004</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>74.1563198925607</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>324.8634805047858</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,13 +28020,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>67.0948607246529</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>157.4804429918827</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.356633406937666e-12</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31367,7 +31367,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653282</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31610,7 +31610,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>162.4518126576419</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31619,7 +31619,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,13 +31838,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>58.6690462609931</v>
+        <v>267.7425307447073</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -31862,13 +31862,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927192</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,25 +32066,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>302.8966830103907</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -32093,19 +32093,19 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32166,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,22 +32318,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>174.555458342344</v>
+        <v>426.4223013539011</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32549,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9375118102116744</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>157.8248501726762</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32792,13 +32792,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32807,16 +32807,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32965,7 +32965,7 @@
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
@@ -33038,13 +33038,13 @@
         <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>372.2688744803115</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33269,28 +33269,28 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>127.288016598936</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33503,13 +33503,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33518,7 +33518,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33740,7 +33740,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -33749,16 +33749,16 @@
         <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>349.1773157277756</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33980,19 +33980,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>105.5536190190921</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34144,7 +34144,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
@@ -34153,7 +34153,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
         <v>76.0697047810465</v>
@@ -34214,7 +34214,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -34223,13 +34223,13 @@
         <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>152.4580040397285</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34372,7 +34372,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565519</v>
@@ -34387,7 +34387,7 @@
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
@@ -34445,19 +34445,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34466,7 +34466,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>185.2928442992127</v>
+        <v>394.3663287829269</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
@@ -35510,7 +35510,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118031</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>73.80225567258286</v>
       </c>
       <c r="L15" t="n">
-        <v>535.1826485339757</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
@@ -35741,13 +35741,13 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>498.1264881703256</v>
+        <v>749.9933311818827</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>10.73738595686864</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>324.5085416381933</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9203638225038</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>228.7283062629101</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>209.7045687067564</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
         <v>59.8253897034981</v>
@@ -36674,25 +36674,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>60.72709196759461</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>623.5349493125966</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>10.73738595686865</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>475.2886788591562</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37002,7 +37002,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
         <v>246.5154907414414</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>228.7283062629101</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>198.9671827498874</v>
       </c>
       <c r="O33" t="n">
         <v>676.2260215178377</v>
@@ -37166,7 +37166,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>10.73738595686865</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>239.4656922197789</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>600.4433905600607</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37628,19 +37628,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>228.7283062629101</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>175.6491326689197</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686865</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502436</v>
@@ -37792,7 +37792,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>228.7283062629101</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>403.7240788720135</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>10.73738595686865</v>
@@ -38020,7 +38020,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221117</v>
@@ -38035,7 +38035,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R44" t="n">
         <v>59.8253897034981</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629101</v>
+        <v>133.160134060553</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
         <v>676.2260215178377</v>
@@ -38114,7 +38114,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>10.73738595686865</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
